--- a/day08/data/2_danawa_data_final.xlsx
+++ b/day08/data/2_danawa_data_final.xlsx
@@ -7687,7 +7687,7 @@
         <v>29980</v>
       </c>
       <c r="E279" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="F279" t="n">
         <v>80</v>
@@ -24443,8 +24443,10 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B924" t="n">
-        <v>0</v>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>브라프</t>
+        </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
@@ -24961,8 +24963,10 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B944" t="n">
-        <v>0</v>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>홈룸</t>
+        </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
@@ -29093,8 +29097,10 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B1103" t="n">
-        <v>0</v>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>무명</t>
+        </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
@@ -30755,8 +30761,10 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B1167" t="n">
-        <v>0</v>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>ZEK</t>
+        </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
@@ -30961,8 +30969,10 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B1175" t="n">
-        <v>0</v>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>무명</t>
+        </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
